--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaodanny/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaodanny/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1C3A1E-CA58-E846-8CB5-9241365C8391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFDE07-9BD7-2A4D-B94E-505D0185B6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16020" activeTab="1" xr2:uid="{229FDA82-3672-0941-ABC4-BD05A6EE4559}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="248">
   <si>
     <t>two sum 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,6 +1010,34 @@
   </si>
   <si>
     <t>Use OrderedDict to do get and put function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use stack to deal with this , remember to store position rather han value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/daily-temperatures/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use DP to finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1991,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC4C1F-E314-1A4C-B8C5-7E3C57124099}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3371,6 +3399,55 @@
       </c>
       <c r="H59" s="39" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="14">
+        <v>739</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="14">
+        <v>64</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="16">
+        <v>2</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" s="39" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3434,6 +3511,8 @@
     <hyperlink ref="H57" r:id="rId56" xr:uid="{DE412784-118A-104A-B060-66D3B16DDADA}"/>
     <hyperlink ref="H58" r:id="rId57" xr:uid="{A8A9EABD-B037-FF4E-BB40-E2FE11F09AEB}"/>
     <hyperlink ref="H59" r:id="rId58" xr:uid="{7B1D76D7-3971-644C-9C01-39CA0673DA2B}"/>
+    <hyperlink ref="H60" r:id="rId59" xr:uid="{A46F5914-13C2-744D-ADF6-3CFD7A67EAB5}"/>
+    <hyperlink ref="H61" r:id="rId60" xr:uid="{6F35B688-1AD2-584F-880B-A4F84DC1FD84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaodanny/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFDE07-9BD7-2A4D-B94E-505D0185B6B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE23927-151A-114B-9AC6-E334E72ABD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16020" activeTab="1" xr2:uid="{229FDA82-3672-0941-ABC4-BD05A6EE4559}"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" activeTab="1" xr2:uid="{229FDA82-3672-0941-ABC4-BD05A6EE4559}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="251">
   <si>
     <t>two sum 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,6 +1038,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-path-sum/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Use DFS with depth to check whether the length of result arry == the depth </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2019,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC4C1F-E314-1A4C-B8C5-7E3C57124099}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3448,6 +3460,29 @@
       </c>
       <c r="H61" s="39" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="14">
+        <v>199</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="16">
+        <v>2</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3513,6 +3548,7 @@
     <hyperlink ref="H59" r:id="rId58" xr:uid="{7B1D76D7-3971-644C-9C01-39CA0673DA2B}"/>
     <hyperlink ref="H60" r:id="rId59" xr:uid="{A46F5914-13C2-744D-ADF6-3CFD7A67EAB5}"/>
     <hyperlink ref="H61" r:id="rId60" xr:uid="{6F35B688-1AD2-584F-880B-A4F84DC1FD84}"/>
+    <hyperlink ref="H62" r:id="rId61" xr:uid="{E8568995-9100-A443-BB29-FCDE6ADB3A6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaodanny/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE23927-151A-114B-9AC6-E334E72ABD13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A80B2C-6ECD-4340-8624-0515DD887295}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" activeTab="1" xr2:uid="{229FDA82-3672-0941-ABC4-BD05A6EE4559}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
   <si>
     <t>two sum 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,6 +1050,14 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House Robber III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-iii/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC4C1F-E314-1A4C-B8C5-7E3C57124099}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3483,6 +3491,32 @@
       </c>
       <c r="H62" s="39" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="14">
+        <v>337</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H63" s="39" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3549,6 +3583,7 @@
     <hyperlink ref="H60" r:id="rId59" xr:uid="{A46F5914-13C2-744D-ADF6-3CFD7A67EAB5}"/>
     <hyperlink ref="H61" r:id="rId60" xr:uid="{6F35B688-1AD2-584F-880B-A4F84DC1FD84}"/>
     <hyperlink ref="H62" r:id="rId61" xr:uid="{E8568995-9100-A443-BB29-FCDE6ADB3A6F}"/>
+    <hyperlink ref="H63" r:id="rId62" xr:uid="{72962502-87BA-2445-8AC7-C4A252238D80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode.xlsx
+++ b/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaodanny/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A80B2C-6ECD-4340-8624-0515DD887295}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4469C4-A155-2248-99D3-787D2A2C2296}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16000" activeTab="1" xr2:uid="{229FDA82-3672-0941-ABC4-BD05A6EE4559}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="257">
   <si>
     <t>two sum 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1058,6 +1058,22 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/house-robber-iii/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>only 1, 2, 3, 4 these answers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/perfect-squares/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DC4C1F-E314-1A4C-B8C5-7E3C57124099}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3517,6 +3533,29 @@
       </c>
       <c r="H63" s="39" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="14">
+        <v>279</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="16">
+        <v>1</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3584,6 +3623,7 @@
     <hyperlink ref="H61" r:id="rId60" xr:uid="{6F35B688-1AD2-584F-880B-A4F84DC1FD84}"/>
     <hyperlink ref="H62" r:id="rId61" xr:uid="{E8568995-9100-A443-BB29-FCDE6ADB3A6F}"/>
     <hyperlink ref="H63" r:id="rId62" xr:uid="{72962502-87BA-2445-8AC7-C4A252238D80}"/>
+    <hyperlink ref="H64" r:id="rId63" xr:uid="{7BB4BE67-B1F2-D74A-9F61-595739B7E2EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
